--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ574.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ574.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7158A01-DF46-4799-BB50-9D65D100F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DBC81E-E1A6-4A9B-BAE1-00DADBB23F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,10 +270,6 @@
   </si>
   <si>
     <t>CustId= , AND ApplyDate=</t>
-  </si>
-  <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
@@ -376,6 +372,12 @@
   </si>
   <si>
     <t>申請日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -978,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -998,10 +1000,10 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1026,10 +1028,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1108,7 +1110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1126,7 +1128,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1159,14 +1161,14 @@
         <v>23</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="15">
         <v>3</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1177,7 +1179,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>36</v>
@@ -1225,7 +1227,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1239,14 +1241,14 @@
         <v>44</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="15">
         <v>16</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1273,10 +1275,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>21</v>
@@ -1903,7 +1905,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
@@ -1914,7 +1916,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>48</v>
@@ -1925,7 +1927,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>49</v>
@@ -1936,32 +1938,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
